--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2337,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2372,28 +2384,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2430,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2498,10 +2510,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2545,28 +2557,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2591,28 +2603,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2799,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2834,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2880,28 +2892,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3306,10 +3318,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3353,28 +3365,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3399,28 +3411,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3508,10 +3520,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3555,28 +3567,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3601,28 +3613,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3681,10 +3693,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3728,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3774,28 +3786,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3970,10 +3982,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4017,28 +4029,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4063,28 +4075,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4605,10 +4617,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4652,28 +4664,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4698,28 +4710,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4819,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4866,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4912,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4980,10 +4992,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5027,28 +5039,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5073,28 +5085,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5153,10 +5165,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5200,28 +5212,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5246,28 +5258,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5355,10 +5367,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5402,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5448,28 +5460,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5528,10 +5540,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5575,28 +5587,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5621,28 +5633,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5788,10 +5800,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5835,28 +5847,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5881,28 +5893,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5961,10 +5973,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6008,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6054,28 +6066,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6163,10 +6175,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6210,28 +6222,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6256,28 +6268,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6365,10 +6377,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6412,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6458,28 +6470,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6538,10 +6550,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6585,28 +6597,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6631,28 +6643,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6711,10 +6723,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6758,28 +6770,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6804,28 +6816,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6884,10 +6896,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6931,28 +6943,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6977,28 +6989,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7057,10 +7069,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7104,28 +7116,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7150,28 +7162,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7288,10 +7300,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7335,28 +7347,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7381,28 +7393,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7490,10 +7502,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7537,28 +7549,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7583,28 +7595,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7663,10 +7675,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7710,28 +7722,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7756,28 +7768,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7836,10 +7848,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7883,28 +7895,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7929,28 +7941,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8038,10 +8050,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8085,28 +8097,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8131,28 +8143,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8211,10 +8223,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8258,28 +8270,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8304,28 +8316,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8384,10 +8396,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8431,28 +8443,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8477,28 +8489,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8557,10 +8569,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8604,28 +8616,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8650,28 +8662,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8730,10 +8742,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8777,28 +8789,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8823,28 +8835,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8932,10 +8944,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8979,28 +8991,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9025,28 +9037,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9105,10 +9117,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9152,28 +9164,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9198,28 +9210,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9278,10 +9290,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9325,28 +9337,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9371,28 +9383,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9451,10 +9463,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9498,28 +9510,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9544,28 +9556,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9624,10 +9636,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9671,28 +9683,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9717,28 +9729,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9797,10 +9809,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9844,28 +9856,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9890,28 +9902,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9999,10 +10011,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="2" t="s">
+      <c r="J342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10046,28 +10058,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="2">
+      <c r="A344" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="2">
+      <c r="C344" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10092,28 +10104,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="2">
+      <c r="C346" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="2">
+      <c r="D346" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="2">
+      <c r="I346" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10172,10 +10184,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="2" t="s">
+      <c r="J348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10219,28 +10231,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="2">
+      <c r="A350" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="2">
+      <c r="C350" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10265,28 +10277,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="2">
+      <c r="C352" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="2">
+      <c r="D352" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="2">
+      <c r="I352" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10345,10 +10357,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="2" t="s">
+      <c r="J354" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10392,28 +10404,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="A356" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="2">
+      <c r="C356" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10438,28 +10450,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="2">
+      <c r="C358" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="2">
+      <c r="D358" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="2">
+      <c r="I358" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10518,10 +10530,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10565,28 +10577,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10611,28 +10623,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10691,10 +10703,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
